--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Neo1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.09175976129877</v>
+        <v>0.3056536666666667</v>
       </c>
       <c r="H2">
-        <v>2.09175976129877</v>
+        <v>0.916961</v>
       </c>
       <c r="I2">
-        <v>0.7058499492262128</v>
+        <v>0.09028452848253411</v>
       </c>
       <c r="J2">
-        <v>0.7058499492262128</v>
+        <v>0.09028452848253413</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.42648457394279</v>
+        <v>2.373057666666667</v>
       </c>
       <c r="N2">
-        <v>1.42648457394279</v>
+        <v>7.119173</v>
       </c>
       <c r="O2">
-        <v>0.02259422925548114</v>
+        <v>0.03663411841135517</v>
       </c>
       <c r="P2">
-        <v>0.02259422925548114</v>
+        <v>0.03663411841135517</v>
       </c>
       <c r="Q2">
-        <v>2.983863031886948</v>
+        <v>0.7253337770281111</v>
       </c>
       <c r="R2">
-        <v>2.983863031886948</v>
+        <v>6.528003993253</v>
       </c>
       <c r="S2">
-        <v>0.01594813557278677</v>
+        <v>0.003307494107142523</v>
       </c>
       <c r="T2">
-        <v>0.01594813557278677</v>
+        <v>0.003307494107142523</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.09175976129877</v>
+        <v>0.3056536666666667</v>
       </c>
       <c r="H3">
-        <v>2.09175976129877</v>
+        <v>0.916961</v>
       </c>
       <c r="I3">
-        <v>0.7058499492262128</v>
+        <v>0.09028452848253411</v>
       </c>
       <c r="J3">
-        <v>0.7058499492262128</v>
+        <v>0.09028452848253413</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>43.1162175125875</v>
+        <v>43.26393666666667</v>
       </c>
       <c r="N3">
-        <v>43.1162175125875</v>
+        <v>129.79181</v>
       </c>
       <c r="O3">
-        <v>0.6829220034367245</v>
+        <v>0.6678877639810287</v>
       </c>
       <c r="P3">
-        <v>0.6829220034367245</v>
+        <v>0.6678877639810287</v>
       </c>
       <c r="Q3">
-        <v>90.18876885223587</v>
+        <v>13.22378087660111</v>
       </c>
       <c r="R3">
-        <v>90.18876885223587</v>
+        <v>119.01402788941</v>
       </c>
       <c r="S3">
-        <v>0.4820404614512755</v>
+        <v>0.0602999318502812</v>
       </c>
       <c r="T3">
-        <v>0.4820404614512755</v>
+        <v>0.06029993185028121</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.09175976129877</v>
+        <v>0.3056536666666667</v>
       </c>
       <c r="H4">
-        <v>2.09175976129877</v>
+        <v>0.916961</v>
       </c>
       <c r="I4">
-        <v>0.7058499492262128</v>
+        <v>0.09028452848253411</v>
       </c>
       <c r="J4">
-        <v>0.7058499492262128</v>
+        <v>0.09028452848253413</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.419572022909791</v>
+        <v>0.4664283333333333</v>
       </c>
       <c r="N4">
-        <v>0.419572022909791</v>
+        <v>1.399285</v>
       </c>
       <c r="O4">
-        <v>0.006645642475198613</v>
+        <v>0.007200495391983466</v>
       </c>
       <c r="P4">
-        <v>0.006645642475198613</v>
+        <v>0.007200495391983466</v>
       </c>
       <c r="Q4">
-        <v>0.8776438744894265</v>
+        <v>0.1425655303205555</v>
       </c>
       <c r="R4">
-        <v>0.8776438744894265</v>
+        <v>1.283089772885</v>
       </c>
       <c r="S4">
-        <v>0.004690826403694504</v>
+        <v>0.0006500933313058868</v>
       </c>
       <c r="T4">
-        <v>0.004690826403694504</v>
+        <v>0.0006500933313058869</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.09175976129877</v>
+        <v>0.3056536666666667</v>
       </c>
       <c r="H5">
-        <v>2.09175976129877</v>
+        <v>0.916961</v>
       </c>
       <c r="I5">
-        <v>0.7058499492262128</v>
+        <v>0.09028452848253411</v>
       </c>
       <c r="J5">
-        <v>0.7058499492262128</v>
+        <v>0.09028452848253413</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.1726333845493</v>
+        <v>18.67383333333333</v>
       </c>
       <c r="N5">
-        <v>18.1726333845493</v>
+        <v>56.0215</v>
       </c>
       <c r="O5">
-        <v>0.2878381248325958</v>
+        <v>0.2882776222156329</v>
       </c>
       <c r="P5">
-        <v>0.2878381248325958</v>
+        <v>0.2882776222156329</v>
       </c>
       <c r="Q5">
-        <v>38.01278327063491</v>
+        <v>5.707725629055556</v>
       </c>
       <c r="R5">
-        <v>38.01278327063491</v>
+        <v>51.36953066150001</v>
       </c>
       <c r="S5">
-        <v>0.203170525798456</v>
+        <v>0.02602700919380451</v>
       </c>
       <c r="T5">
-        <v>0.203170525798456</v>
+        <v>0.02602700919380452</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.316132012453092</v>
+        <v>2.160221</v>
       </c>
       <c r="H6">
-        <v>0.316132012453092</v>
+        <v>6.480663</v>
       </c>
       <c r="I6">
-        <v>0.1066765739867982</v>
+        <v>0.6380899549808606</v>
       </c>
       <c r="J6">
-        <v>0.1066765739867982</v>
+        <v>0.6380899549808607</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.42648457394279</v>
+        <v>2.373057666666667</v>
       </c>
       <c r="N6">
-        <v>1.42648457394279</v>
+        <v>7.119173</v>
       </c>
       <c r="O6">
-        <v>0.02259422925548114</v>
+        <v>0.03663411841135517</v>
       </c>
       <c r="P6">
-        <v>0.02259422925548114</v>
+        <v>0.03663411841135517</v>
       </c>
       <c r="Q6">
-        <v>0.4509574390938258</v>
+        <v>5.126329005744333</v>
       </c>
       <c r="R6">
-        <v>0.4509574390938258</v>
+        <v>46.136961051699</v>
       </c>
       <c r="S6">
-        <v>0.002410274968847013</v>
+        <v>0.02337586296786514</v>
       </c>
       <c r="T6">
-        <v>0.002410274968847013</v>
+        <v>0.02337586296786514</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.316132012453092</v>
+        <v>2.160221</v>
       </c>
       <c r="H7">
-        <v>0.316132012453092</v>
+        <v>6.480663</v>
       </c>
       <c r="I7">
-        <v>0.1066765739867982</v>
+        <v>0.6380899549808606</v>
       </c>
       <c r="J7">
-        <v>0.1066765739867982</v>
+        <v>0.6380899549808607</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.1162175125875</v>
+        <v>43.26393666666667</v>
       </c>
       <c r="N7">
-        <v>43.1162175125875</v>
+        <v>129.79181</v>
       </c>
       <c r="O7">
-        <v>0.6829220034367245</v>
+        <v>0.6678877639810287</v>
       </c>
       <c r="P7">
-        <v>0.6829220034367245</v>
+        <v>0.6678877639810287</v>
       </c>
       <c r="Q7">
-        <v>13.63041661161954</v>
+        <v>93.45966453000332</v>
       </c>
       <c r="R7">
-        <v>13.63041661161954</v>
+        <v>841.1369807700299</v>
       </c>
       <c r="S7">
-        <v>0.07285177962683018</v>
+        <v>0.4261724732509223</v>
       </c>
       <c r="T7">
-        <v>0.07285177962683018</v>
+        <v>0.4261724732509223</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.316132012453092</v>
+        <v>2.160221</v>
       </c>
       <c r="H8">
-        <v>0.316132012453092</v>
+        <v>6.480663</v>
       </c>
       <c r="I8">
-        <v>0.1066765739867982</v>
+        <v>0.6380899549808606</v>
       </c>
       <c r="J8">
-        <v>0.1066765739867982</v>
+        <v>0.6380899549808607</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.419572022909791</v>
+        <v>0.4664283333333333</v>
       </c>
       <c r="N8">
-        <v>0.419572022909791</v>
+        <v>1.399285</v>
       </c>
       <c r="O8">
-        <v>0.006645642475198613</v>
+        <v>0.007200495391983466</v>
       </c>
       <c r="P8">
-        <v>0.006645642475198613</v>
+        <v>0.007200495391983466</v>
       </c>
       <c r="Q8">
-        <v>0.1326401479714871</v>
+        <v>1.007588280661667</v>
       </c>
       <c r="R8">
-        <v>0.1326401479714871</v>
+        <v>9.068294525954999</v>
       </c>
       <c r="S8">
-        <v>0.0007089343711953334</v>
+        <v>0.004594563780510624</v>
       </c>
       <c r="T8">
-        <v>0.0007089343711953334</v>
+        <v>0.004594563780510625</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.316132012453092</v>
+        <v>2.160221</v>
       </c>
       <c r="H9">
-        <v>0.316132012453092</v>
+        <v>6.480663</v>
       </c>
       <c r="I9">
-        <v>0.1066765739867982</v>
+        <v>0.6380899549808606</v>
       </c>
       <c r="J9">
-        <v>0.1066765739867982</v>
+        <v>0.6380899549808607</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.1726333845493</v>
+        <v>18.67383333333333</v>
       </c>
       <c r="N9">
-        <v>18.1726333845493</v>
+        <v>56.0215</v>
       </c>
       <c r="O9">
-        <v>0.2878381248325958</v>
+        <v>0.2882776222156329</v>
       </c>
       <c r="P9">
-        <v>0.2878381248325958</v>
+        <v>0.2882776222156329</v>
       </c>
       <c r="Q9">
-        <v>5.744951163429815</v>
+        <v>40.33960691716667</v>
       </c>
       <c r="R9">
-        <v>5.744951163429815</v>
+        <v>363.0564622545</v>
       </c>
       <c r="S9">
-        <v>0.03070558501992565</v>
+        <v>0.1839470549815627</v>
       </c>
       <c r="T9">
-        <v>0.03070558501992565</v>
+        <v>0.1839470549815627</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.555570593273678</v>
+        <v>0.3550333333333333</v>
       </c>
       <c r="H10">
-        <v>0.555570593273678</v>
+        <v>1.0651</v>
       </c>
       <c r="I10">
-        <v>0.187473476786989</v>
+        <v>0.1048703830225572</v>
       </c>
       <c r="J10">
-        <v>0.187473476786989</v>
+        <v>0.1048703830225572</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.42648457394279</v>
+        <v>2.373057666666667</v>
       </c>
       <c r="N10">
-        <v>1.42648457394279</v>
+        <v>7.119173</v>
       </c>
       <c r="O10">
-        <v>0.02259422925548114</v>
+        <v>0.03663411841135517</v>
       </c>
       <c r="P10">
-        <v>0.02259422925548114</v>
+        <v>0.03663411841135517</v>
       </c>
       <c r="Q10">
-        <v>0.7925128810411456</v>
+        <v>0.8425145735888888</v>
       </c>
       <c r="R10">
-        <v>0.7925128810411456</v>
+        <v>7.582631162299999</v>
       </c>
       <c r="S10">
-        <v>0.00423581871384735</v>
+        <v>0.003841834029492531</v>
       </c>
       <c r="T10">
-        <v>0.00423581871384735</v>
+        <v>0.003841834029492531</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.555570593273678</v>
+        <v>0.3550333333333333</v>
       </c>
       <c r="H11">
-        <v>0.555570593273678</v>
+        <v>1.0651</v>
       </c>
       <c r="I11">
-        <v>0.187473476786989</v>
+        <v>0.1048703830225572</v>
       </c>
       <c r="J11">
-        <v>0.187473476786989</v>
+        <v>0.1048703830225572</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.1162175125875</v>
+        <v>43.26393666666667</v>
       </c>
       <c r="N11">
-        <v>43.1162175125875</v>
+        <v>129.79181</v>
       </c>
       <c r="O11">
-        <v>0.6829220034367245</v>
+        <v>0.6678877639810287</v>
       </c>
       <c r="P11">
-        <v>0.6829220034367245</v>
+        <v>0.6678877639810287</v>
       </c>
       <c r="Q11">
-        <v>23.95410254318518</v>
+        <v>15.36013964788889</v>
       </c>
       <c r="R11">
-        <v>23.95410254318518</v>
+        <v>138.241256831</v>
       </c>
       <c r="S11">
-        <v>0.1280297623586188</v>
+        <v>0.07004164562476976</v>
       </c>
       <c r="T11">
-        <v>0.1280297623586188</v>
+        <v>0.07004164562476978</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.555570593273678</v>
+        <v>0.3550333333333333</v>
       </c>
       <c r="H12">
-        <v>0.555570593273678</v>
+        <v>1.0651</v>
       </c>
       <c r="I12">
-        <v>0.187473476786989</v>
+        <v>0.1048703830225572</v>
       </c>
       <c r="J12">
-        <v>0.187473476786989</v>
+        <v>0.1048703830225572</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.419572022909791</v>
+        <v>0.4664283333333333</v>
       </c>
       <c r="N12">
-        <v>0.419572022909791</v>
+        <v>1.399285</v>
       </c>
       <c r="O12">
-        <v>0.006645642475198613</v>
+        <v>0.007200495391983466</v>
       </c>
       <c r="P12">
-        <v>0.006645642475198613</v>
+        <v>0.007200495391983466</v>
       </c>
       <c r="Q12">
-        <v>0.2331018776890298</v>
+        <v>0.1655976059444444</v>
       </c>
       <c r="R12">
-        <v>0.2331018776890298</v>
+        <v>1.4903784535</v>
       </c>
       <c r="S12">
-        <v>0.001245881700308775</v>
+        <v>0.0007551187097094642</v>
       </c>
       <c r="T12">
-        <v>0.001245881700308775</v>
+        <v>0.0007551187097094643</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3550333333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.0651</v>
+      </c>
+      <c r="I13">
+        <v>0.1048703830225572</v>
+      </c>
+      <c r="J13">
+        <v>0.1048703830225572</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>18.67383333333333</v>
+      </c>
+      <c r="N13">
+        <v>56.0215</v>
+      </c>
+      <c r="O13">
+        <v>0.2882776222156329</v>
+      </c>
+      <c r="P13">
+        <v>0.2882776222156329</v>
+      </c>
+      <c r="Q13">
+        <v>6.629833294444444</v>
+      </c>
+      <c r="R13">
+        <v>59.66849965</v>
+      </c>
+      <c r="S13">
+        <v>0.03023178465858546</v>
+      </c>
+      <c r="T13">
+        <v>0.03023178465858547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.564541</v>
+      </c>
+      <c r="H14">
+        <v>1.693623</v>
+      </c>
+      <c r="I14">
+        <v>0.1667551335140479</v>
+      </c>
+      <c r="J14">
+        <v>0.1667551335140479</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.373057666666667</v>
+      </c>
+      <c r="N14">
+        <v>7.119173</v>
+      </c>
+      <c r="O14">
+        <v>0.03663411841135517</v>
+      </c>
+      <c r="P14">
+        <v>0.03663411841135517</v>
+      </c>
+      <c r="Q14">
+        <v>1.339688348197666</v>
+      </c>
+      <c r="R14">
+        <v>12.057195133779</v>
+      </c>
+      <c r="S14">
+        <v>0.00610892730685497</v>
+      </c>
+      <c r="T14">
+        <v>0.00610892730685497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.564541</v>
+      </c>
+      <c r="H15">
+        <v>1.693623</v>
+      </c>
+      <c r="I15">
+        <v>0.1667551335140479</v>
+      </c>
+      <c r="J15">
+        <v>0.1667551335140479</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>43.26393666666667</v>
+      </c>
+      <c r="N15">
+        <v>129.79181</v>
+      </c>
+      <c r="O15">
+        <v>0.6678877639810287</v>
+      </c>
+      <c r="P15">
+        <v>0.6678877639810287</v>
+      </c>
+      <c r="Q15">
+        <v>24.42426606973666</v>
+      </c>
+      <c r="R15">
+        <v>219.81839462763</v>
+      </c>
+      <c r="S15">
+        <v>0.1113737132550553</v>
+      </c>
+      <c r="T15">
+        <v>0.1113737132550553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.555570593273678</v>
-      </c>
-      <c r="H13">
-        <v>0.555570593273678</v>
-      </c>
-      <c r="I13">
-        <v>0.187473476786989</v>
-      </c>
-      <c r="J13">
-        <v>0.187473476786989</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>18.1726333845493</v>
-      </c>
-      <c r="N13">
-        <v>18.1726333845493</v>
-      </c>
-      <c r="O13">
-        <v>0.2878381248325958</v>
-      </c>
-      <c r="P13">
-        <v>0.2878381248325958</v>
-      </c>
-      <c r="Q13">
-        <v>10.0961807107991</v>
-      </c>
-      <c r="R13">
-        <v>10.0961807107991</v>
-      </c>
-      <c r="S13">
-        <v>0.05396201401421408</v>
-      </c>
-      <c r="T13">
-        <v>0.05396201401421408</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.564541</v>
+      </c>
+      <c r="H16">
+        <v>1.693623</v>
+      </c>
+      <c r="I16">
+        <v>0.1667551335140479</v>
+      </c>
+      <c r="J16">
+        <v>0.1667551335140479</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4664283333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.399285</v>
+      </c>
+      <c r="O16">
+        <v>0.007200495391983466</v>
+      </c>
+      <c r="P16">
+        <v>0.007200495391983466</v>
+      </c>
+      <c r="Q16">
+        <v>0.2633179177283333</v>
+      </c>
+      <c r="R16">
+        <v>2.369861259554999</v>
+      </c>
+      <c r="S16">
+        <v>0.001200719570457489</v>
+      </c>
+      <c r="T16">
+        <v>0.001200719570457489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.564541</v>
+      </c>
+      <c r="H17">
+        <v>1.693623</v>
+      </c>
+      <c r="I17">
+        <v>0.1667551335140479</v>
+      </c>
+      <c r="J17">
+        <v>0.1667551335140479</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>18.67383333333333</v>
+      </c>
+      <c r="N17">
+        <v>56.0215</v>
+      </c>
+      <c r="O17">
+        <v>0.2882776222156329</v>
+      </c>
+      <c r="P17">
+        <v>0.2882776222156329</v>
+      </c>
+      <c r="Q17">
+        <v>10.54214454383333</v>
+      </c>
+      <c r="R17">
+        <v>94.87930089450001</v>
+      </c>
+      <c r="S17">
+        <v>0.04807177338168012</v>
+      </c>
+      <c r="T17">
+        <v>0.04807177338168012</v>
       </c>
     </row>
   </sheetData>
